--- a/biology/Biologie cellulaire et moléculaire/Splicéosome_mineur/Splicéosome_mineur.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Splicéosome_mineur/Splicéosome_mineur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Splic%C3%A9osome_mineur</t>
+          <t>Splicéosome_mineur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le splicéosome mineur est un complexe ribonucléoprotéique qui catalyse l'enlèvement d'une classe atypique d'introns (dits de type-U12) à des ARN pré-messagers d'eucaryotes comme des plantes, des insectes, des vertébrés et certains champignons (Rhizopus oryzae). Ce processus est appelé épissage non canonique, par opposition à l'épissage canonique de type-U2 qui est réalisé par le splicéosome majeur. Les introns de type-U12 représentent moins de 1 % de l'ensemble des introns dans les cellules humaines. Cependant, ils se retrouvent dans l'exécution de fonctions essentielles de gènes cellulaires.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Splic%C3%A9osome_mineur</t>
+          <t>Splicéosome_mineur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Début de preuves</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les introns des cellules eucaryotes ont un niveau relativement élevé de conservation de la séquence primaire des sites d'épissage en 5' et 3' dans une grande gamme d'organismes.
 Entre 1989 et 1991, plusieurs groupes ont fait état de quatre exemples indépendants d'introns avec des sites d'épissage qui différaient de ceux déjà connus :
